--- a/REGULAR/DIMAPILIS, JONNA.xlsx
+++ b/REGULAR/DIMAPILIS, JONNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9761C2-FB58-4063-9A20-51484EC9A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="368">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1136,12 +1135,15 @@
   </si>
   <si>
     <t>9/27,28,29</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2030,7 +2032,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2075,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2139,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2199,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2265,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2328,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2426,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2485,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2550,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2593,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2668,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2854,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2920,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2978,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3044,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3100,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3175,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3218,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3284,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3340,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3438,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3501,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,25 +3567,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3595,13 +3597,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3610,14 +3612,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3921,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3931,7 +3933,7 @@
       <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3939,34 +3941,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A575" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A578" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
+      <selection pane="bottomLeft" activeCell="B593" sqref="B593"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +4009,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4029,7 +4031,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4037,7 +4039,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4050,7 +4052,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4067,7 +4069,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4111,7 +4113,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>240.63500000000008</v>
+        <v>243.13500000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4121,12 +4123,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>284.125</v>
+        <v>286.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -4144,7 +4146,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34608</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>34639</v>
@@ -4185,7 +4187,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4206,7 +4208,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>56</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>34700</v>
       </c>
@@ -4244,7 +4246,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4265,7 +4267,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4286,7 +4288,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4307,7 +4309,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4334,7 +4336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4355,7 +4357,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4376,7 +4378,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4397,7 +4399,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4418,7 +4420,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4439,7 +4441,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4460,7 +4462,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4487,7 +4489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>43</v>
       </c>
@@ -4509,7 +4511,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35065</v>
       </c>
@@ -4529,7 +4531,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4550,7 +4552,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A38" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4571,7 +4573,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4592,7 +4594,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4613,7 +4615,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4634,7 +4636,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4655,7 +4657,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4676,7 +4678,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4701,7 +4703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4722,7 +4724,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4743,7 +4745,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>35400</v>
@@ -4766,7 +4768,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4788,7 +4790,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>47</v>
       </c>
@@ -4806,7 +4808,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35431</v>
       </c>
@@ -4826,7 +4828,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4847,7 +4849,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -4868,7 +4870,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4889,7 +4891,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4914,7 +4916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4932,7 +4934,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A46,1)</f>
         <v>35582</v>
@@ -4953,7 +4955,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4974,7 +4976,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4995,7 +4997,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5022,7 +5024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>52</v>
@@ -5044,7 +5046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5065,7 +5067,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>35735</v>
@@ -5086,7 +5088,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5113,7 +5115,7 @@
         <v>35532</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>62</v>
@@ -5133,7 +5135,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>63</v>
       </c>
@@ -5151,7 +5153,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35796</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>35827</v>
@@ -5198,7 +5200,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A70" si="3">EDATE(A59,1)</f>
         <v>35855</v>
@@ -5225,7 +5227,7 @@
         <v>36132</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5246,7 +5248,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5267,7 +5269,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5288,7 +5290,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5309,7 +5311,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5332,7 +5334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>36039</v>
@@ -5355,7 +5357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5378,7 +5380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -5396,7 +5398,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>36100</v>
@@ -5417,7 +5419,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5444,7 +5446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>73</v>
       </c>
@@ -5462,7 +5464,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36161</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>36192</v>
@@ -5509,7 +5511,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" ref="A74:A85" si="4">EDATE(A73,1)</f>
         <v>36220</v>
@@ -5530,7 +5532,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5551,7 +5553,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36281</v>
@@ -5572,7 +5574,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>36312</v>
@@ -5593,7 +5595,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -5614,7 +5616,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5639,7 +5641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5657,7 +5659,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36404</v>
@@ -5680,7 +5682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5698,7 +5700,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>36434</v>
@@ -5719,7 +5721,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5746,7 +5748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>36495</v>
@@ -5771,7 +5773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5789,7 +5791,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>80</v>
       </c>
@@ -5807,7 +5809,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -5827,7 +5829,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -5848,7 +5850,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A100" si="5">EDATE(A89,1)</f>
         <v>36586</v>
@@ -5869,7 +5871,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -5890,7 +5892,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -5915,7 +5917,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -5936,7 +5938,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5961,7 +5963,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5982,7 +5984,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6003,7 +6005,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6024,7 +6026,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>72</v>
@@ -6046,7 +6048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36831</v>
@@ -6067,7 +6069,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6088,7 +6090,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>84</v>
       </c>
@@ -6106,7 +6108,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -6126,7 +6128,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>36923</v>
@@ -6147,7 +6149,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" ref="A104:A112" si="6">EDATE(A103,1)</f>
         <v>36951</v>
@@ -6172,7 +6174,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6197,7 +6199,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6222,7 +6224,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6243,7 +6245,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6266,7 +6268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6284,7 +6286,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>37104</v>
@@ -6309,7 +6311,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6334,7 +6336,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6359,7 +6361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -6377,7 +6379,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -6402,7 +6404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>92</v>
@@ -6424,7 +6426,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6449,7 +6451,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>94</v>
       </c>
@@ -6467,7 +6469,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37257</v>
       </c>
@@ -6487,7 +6489,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A118,1)</f>
         <v>37288</v>
@@ -6512,7 +6514,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A127" si="7">EDATE(A119,1)</f>
         <v>37316</v>
@@ -6533,7 +6535,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6554,7 +6556,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6579,7 +6581,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6600,7 +6602,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6625,7 +6627,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6650,7 +6652,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6675,7 +6677,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6700,7 +6702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>100</v>
@@ -6722,7 +6724,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37561</v>
@@ -6747,7 +6749,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>49</v>
@@ -6769,7 +6771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37591</v>
@@ -6794,7 +6796,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>103</v>
       </c>
@@ -6812,7 +6814,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6832,7 +6834,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>37653</v>
@@ -6853,7 +6855,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" ref="A135:A145" si="8">EDATE(A134,1)</f>
         <v>37681</v>
@@ -6874,7 +6876,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="8"/>
         <v>37712</v>
@@ -6895,7 +6897,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6916,7 +6918,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="8"/>
         <v>37773</v>
@@ -6937,7 +6939,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6958,7 +6960,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6981,7 +6983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -6999,7 +7001,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37865</v>
@@ -7022,7 +7024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -7040,7 +7042,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37895</v>
@@ -7061,7 +7063,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37926</v>
@@ -7086,7 +7088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -7104,7 +7106,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>37956</v>
@@ -7125,7 +7127,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>107</v>
       </c>
@@ -7143,7 +7145,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37987</v>
       </c>
@@ -7163,7 +7165,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>38018</v>
@@ -7184,7 +7186,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" ref="A151:A157" si="9">EDATE(A150,1)</f>
         <v>38047</v>
@@ -7205,7 +7207,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -7226,7 +7228,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -7247,7 +7249,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -7268,7 +7270,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -7289,7 +7291,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38200</v>
@@ -7310,7 +7312,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -7335,7 +7337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -7353,7 +7355,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>38261</v>
@@ -7376,7 +7378,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -7394,7 +7396,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38292</v>
@@ -7417,7 +7419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -7435,7 +7437,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>38322</v>
@@ -7456,7 +7458,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>111</v>
       </c>
@@ -7474,7 +7476,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
         <v>38353</v>
       </c>
@@ -7494,7 +7496,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="15"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A165,1)</f>
         <v>38384</v>
@@ -7515,7 +7517,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" ref="A167:A173" si="10">EDATE(A166,1)</f>
         <v>38412</v>
@@ -7536,7 +7538,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -7557,7 +7559,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -7578,7 +7580,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -7599,7 +7601,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -7620,7 +7622,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7641,7 +7643,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7664,7 +7666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="42">
@@ -7682,7 +7684,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38626</v>
@@ -7705,7 +7707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="42">
@@ -7723,7 +7725,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38657</v>
@@ -7744,7 +7746,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -7766,7 +7768,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>38687</v>
@@ -7787,7 +7789,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>116</v>
       </c>
@@ -7805,7 +7807,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38718</v>
       </c>
@@ -7825,7 +7827,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>38749</v>
@@ -7846,7 +7848,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" ref="A183:A196" si="11">EDATE(A182,1)</f>
         <v>38777</v>
@@ -7867,7 +7869,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7888,7 +7890,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7909,7 +7911,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7930,7 +7932,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7955,7 +7957,7 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>117</v>
@@ -7977,7 +7979,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A187,1)</f>
         <v>38930</v>
@@ -8002,7 +8004,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>119</v>
@@ -8024,7 +8026,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A189,1)</f>
         <v>38961</v>
@@ -8047,7 +8049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>121</v>
@@ -8069,7 +8071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>67</v>
@@ -8089,7 +8091,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>124</v>
@@ -8111,7 +8113,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A191,1)</f>
         <v>38991</v>
@@ -8132,7 +8134,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -8155,7 +8157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>126</v>
@@ -8177,7 +8179,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39052</v>
@@ -8202,7 +8204,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -8224,7 +8226,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>128</v>
       </c>
@@ -8242,7 +8244,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39083</v>
       </c>
@@ -8266,7 +8268,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>39114</v>
@@ -8289,7 +8291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>130</v>
@@ -8311,7 +8313,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>39142</v>
@@ -8336,7 +8338,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>131</v>
@@ -8358,7 +8360,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>39173</v>
@@ -8383,7 +8385,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A221" si="12">EDATE(A206,1)</f>
         <v>39203</v>
@@ -8408,7 +8410,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>61</v>
@@ -8430,7 +8432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>78</v>
@@ -8450,7 +8452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8472,7 +8474,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A207,1)</f>
         <v>39234</v>
@@ -8497,7 +8499,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>67</v>
@@ -8517,7 +8519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>137</v>
@@ -8539,7 +8541,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>39264</v>
@@ -8564,7 +8566,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="12"/>
         <v>39295</v>
@@ -8589,7 +8591,7 @@
         <v>39271</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>61</v>
@@ -8611,7 +8613,7 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>61</v>
@@ -8633,7 +8635,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>139</v>
@@ -8655,7 +8657,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>141</v>
@@ -8677,7 +8679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A215,1)</f>
         <v>39326</v>
@@ -8702,7 +8704,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>39356</v>
@@ -8727,7 +8729,7 @@
         <v>39151</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>61</v>
@@ -8749,7 +8751,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>144</v>
@@ -8771,7 +8773,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>39387</v>
@@ -8796,7 +8798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>147</v>
@@ -8818,7 +8820,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39417</v>
@@ -8843,7 +8845,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>149</v>
       </c>
@@ -8861,7 +8863,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39448</v>
       </c>
@@ -8885,7 +8887,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A228,1)</f>
         <v>39479</v>
@@ -8910,7 +8912,7 @@
         <v>39570</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>78</v>
@@ -8930,7 +8932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>61</v>
@@ -8952,7 +8954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>154</v>
@@ -8974,7 +8976,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="50"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A229,1)</f>
         <v>39508</v>
@@ -8999,7 +9001,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>39539</v>
@@ -9024,7 +9026,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>61</v>
@@ -9046,7 +9048,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>157</v>
@@ -9068,7 +9070,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A234,1)</f>
         <v>39569</v>
@@ -9093,7 +9095,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>160</v>
@@ -9113,7 +9115,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39600</v>
@@ -9138,7 +9140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>162</v>
@@ -9160,7 +9162,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39630</v>
@@ -9185,7 +9187,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -9210,7 +9212,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>164</v>
@@ -9232,7 +9234,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39692</v>
@@ -9257,7 +9259,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>61</v>
@@ -9279,7 +9281,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -9299,7 +9301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>167</v>
@@ -9321,7 +9323,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A244,1)</f>
         <v>39722</v>
@@ -9346,7 +9348,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>169</v>
@@ -9368,7 +9370,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39753</v>
@@ -9393,7 +9395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13">
@@ -9411,7 +9413,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39783</v>
@@ -9436,7 +9438,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="48" t="s">
         <v>173</v>
       </c>
@@ -9454,7 +9456,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>39814</v>
       </c>
@@ -9474,7 +9476,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>61</v>
@@ -9496,7 +9498,7 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>78</v>
@@ -9516,7 +9518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>97</v>
@@ -9536,7 +9538,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A254,1)</f>
         <v>39845</v>
@@ -9561,7 +9563,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>177</v>
@@ -9583,7 +9585,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39873</v>
@@ -9608,7 +9610,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>178</v>
@@ -9630,7 +9632,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39904</v>
@@ -9655,7 +9657,7 @@
         <v>39998</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9677,7 +9679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>180</v>
@@ -9699,7 +9701,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A262,1)</f>
         <v>39934</v>
@@ -9724,7 +9726,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>78</v>
@@ -9744,7 +9746,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>181</v>
@@ -9766,7 +9768,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A265,1)</f>
         <v>39965</v>
@@ -9791,7 +9793,7 @@
         <v>39878</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>185</v>
@@ -9813,7 +9815,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39995</v>
@@ -9838,7 +9840,7 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>186</v>
@@ -9860,7 +9862,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>40026</v>
@@ -9885,7 +9887,7 @@
         <v>40125</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>187</v>
@@ -9907,7 +9909,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40057</v>
@@ -9930,7 +9932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -9952,7 +9954,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>40087</v>
@@ -9977,7 +9979,7 @@
         <v>39854</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>141</v>
@@ -9999,7 +10001,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>61</v>
@@ -10021,7 +10023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>191</v>
@@ -10043,7 +10045,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>40118</v>
@@ -10066,7 +10068,7 @@
         <v>40036</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>192</v>
@@ -10088,7 +10090,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282" si="14">EDATE(A280,1)</f>
         <v>40148</v>
@@ -10113,7 +10115,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>194</v>
@@ -10135,7 +10137,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>195</v>
       </c>
@@ -10153,7 +10155,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40179</v>
       </c>
@@ -10177,7 +10179,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>40210</v>
@@ -10202,7 +10204,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>197</v>
@@ -10224,7 +10226,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10249,7 +10251,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>61</v>
@@ -10271,7 +10273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>67</v>
@@ -10291,7 +10293,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>200</v>
@@ -10313,7 +10315,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A288,1)</f>
         <v>40269</v>
@@ -10338,7 +10340,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" ref="A293:A297" si="15">EDATE(A292,1)</f>
         <v>40299</v>
@@ -10363,7 +10365,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>61</v>
@@ -10385,7 +10387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>202</v>
@@ -10407,7 +10409,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A293,1)</f>
         <v>40330</v>
@@ -10432,7 +10434,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -10457,7 +10459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>206</v>
@@ -10479,7 +10481,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40391</v>
@@ -10504,7 +10506,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>207</v>
@@ -10526,7 +10528,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>40422</v>
@@ -10551,7 +10553,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>78</v>
@@ -10571,7 +10573,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>78</v>
@@ -10591,7 +10593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>207</v>
@@ -10613,7 +10615,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A301,1)</f>
         <v>40452</v>
@@ -10638,7 +10640,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -10656,7 +10658,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>40483</v>
@@ -10681,7 +10683,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -10699,7 +10701,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40513</v>
@@ -10724,7 +10726,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>214</v>
       </c>
@@ -10742,7 +10744,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40544</v>
       </c>
@@ -10766,7 +10768,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>216</v>
@@ -10788,7 +10790,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40575</v>
@@ -10811,7 +10813,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>61</v>
@@ -10833,7 +10835,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>219</v>
@@ -10855,7 +10857,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A313,1)</f>
         <v>40603</v>
@@ -10880,7 +10882,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A327" si="16">EDATE(A316,1)</f>
         <v>40634</v>
@@ -10905,7 +10907,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>61</v>
@@ -10927,7 +10929,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>78</v>
@@ -10947,7 +10949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>121</v>
@@ -10969,7 +10971,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>223</v>
@@ -10991,7 +10993,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>40664</v>
@@ -11016,7 +11018,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>61</v>
@@ -11038,7 +11040,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>226</v>
@@ -11060,7 +11062,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>40695</v>
@@ -11085,7 +11087,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -11110,7 +11112,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -11135,7 +11137,7 @@
         <v>40855</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -11153,7 +11155,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40787</v>
@@ -11176,7 +11178,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>228</v>
@@ -11198,7 +11200,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40817</v>
@@ -11223,7 +11225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>184</v>
@@ -11245,7 +11247,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>226</v>
@@ -11267,7 +11269,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>40848</v>
@@ -11292,7 +11294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>126</v>
@@ -11314,7 +11316,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A334,1)</f>
         <v>40878</v>
@@ -11339,7 +11341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>61</v>
@@ -11361,7 +11363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>219</v>
@@ -11383,7 +11385,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
         <v>234</v>
       </c>
@@ -11401,7 +11403,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>40909</v>
       </c>
@@ -11425,7 +11427,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>40940</v>
@@ -11448,7 +11450,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>67</v>
@@ -11468,7 +11470,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11486,7 +11488,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>40969</v>
@@ -11511,7 +11513,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" ref="A345:A358" si="17">EDATE(A344,1)</f>
         <v>41000</v>
@@ -11536,7 +11538,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="17"/>
         <v>41030</v>
@@ -11561,7 +11563,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13">
@@ -11579,7 +11581,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A346,1)</f>
         <v>41061</v>
@@ -11600,7 +11602,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -11621,7 +11623,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -11646,7 +11648,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -11671,7 +11673,7 @@
         <v>41008</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>78</v>
@@ -11691,7 +11693,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11709,7 +11711,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41183</v>
@@ -11734,7 +11736,7 @@
         <v>41223</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>158</v>
@@ -11756,7 +11758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>228</v>
@@ -11778,7 +11780,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>41214</v>
@@ -11803,7 +11805,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -11828,7 +11830,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>243</v>
@@ -11850,7 +11852,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="48" t="s">
         <v>244</v>
       </c>
@@ -11868,7 +11870,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41275</v>
       </c>
@@ -11888,7 +11890,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A361,1)</f>
         <v>41306</v>
@@ -11911,7 +11913,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>61</v>
@@ -11933,7 +11935,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>61</v>
@@ -11955,7 +11957,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13">
@@ -11973,7 +11975,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A362,1)</f>
         <v>41334</v>
@@ -11998,7 +12000,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>248</v>
@@ -12020,7 +12022,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41365</v>
@@ -12045,7 +12047,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" ref="A369:A382" si="18">EDATE(A368,1)</f>
         <v>41395</v>
@@ -12068,7 +12070,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>85</v>
@@ -12090,7 +12092,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>41426</v>
@@ -12111,7 +12113,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="18"/>
         <v>41456</v>
@@ -12134,7 +12136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>167</v>
@@ -12156,7 +12158,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41487</v>
@@ -12181,7 +12183,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -12206,7 +12208,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>61</v>
@@ -12228,7 +12230,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>78</v>
@@ -12248,7 +12250,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>206</v>
@@ -12270,7 +12272,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A375,1)</f>
         <v>41548</v>
@@ -12293,7 +12295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -12311,7 +12313,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41579</v>
@@ -12336,7 +12338,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -12361,7 +12363,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>184</v>
@@ -12381,7 +12383,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
         <v>255</v>
       </c>
@@ -12399,7 +12401,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41640</v>
       </c>
@@ -12419,7 +12421,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A385,1)</f>
         <v>41671</v>
@@ -12444,7 +12446,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>61</v>
@@ -12466,7 +12468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12484,7 +12486,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A386,1)</f>
         <v>41699</v>
@@ -12509,7 +12511,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A398" si="19">EDATE(A389,1)</f>
         <v>41730</v>
@@ -12530,7 +12532,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -12555,7 +12557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13">
@@ -12573,7 +12575,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>41791</v>
@@ -12594,7 +12596,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -12619,7 +12621,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -12644,7 +12646,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>102</v>
@@ -12666,7 +12668,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41883</v>
@@ -12687,7 +12689,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -12710,7 +12712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>61</v>
@@ -12732,7 +12734,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>263</v>
@@ -12752,7 +12754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>82</v>
@@ -12774,7 +12776,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A398,1)</f>
         <v>41944</v>
@@ -12797,7 +12799,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12815,7 +12817,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41974</v>
@@ -12840,7 +12842,7 @@
         <v>41985</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>267</v>
@@ -12862,7 +12864,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="48" t="s">
         <v>268</v>
       </c>
@@ -12880,7 +12882,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42005</v>
       </c>
@@ -12904,7 +12906,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>61</v>
@@ -12926,7 +12928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>266</v>
@@ -12948,7 +12950,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>42036</v>
@@ -12973,7 +12975,7 @@
         <v>42249</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>271</v>
@@ -12995,7 +12997,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>42064</v>
@@ -13020,7 +13022,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>263</v>
@@ -13040,7 +13042,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>64</v>
@@ -13062,7 +13064,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>273</v>
@@ -13084,7 +13086,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>64</v>
@@ -13106,7 +13108,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>226</v>
@@ -13128,7 +13130,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A412,1)</f>
         <v>42095</v>
@@ -13153,7 +13155,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -13171,7 +13173,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>42125</v>
@@ -13196,7 +13198,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>61</v>
@@ -13216,7 +13218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>280</v>
@@ -13238,7 +13240,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A420,1)</f>
         <v>42156</v>
@@ -13263,7 +13265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>61</v>
@@ -13285,7 +13287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>130</v>
@@ -13307,7 +13309,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A423,1)</f>
         <v>42186</v>
@@ -13332,7 +13334,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" ref="A427:A428" si="20">EDATE(A426,1)</f>
         <v>42217</v>
@@ -13357,7 +13359,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -13382,7 +13384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>61</v>
@@ -13404,7 +13406,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>67</v>
@@ -13424,7 +13426,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13442,7 +13444,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>42278</v>
@@ -13467,7 +13469,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>61</v>
@@ -13489,7 +13491,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>289</v>
@@ -13511,7 +13513,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A432,1)</f>
         <v>42309</v>
@@ -13536,7 +13538,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>61</v>
@@ -13558,7 +13560,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>114</v>
@@ -13580,7 +13582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>295</v>
@@ -13602,7 +13604,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A435,1)</f>
         <v>42339</v>
@@ -13627,7 +13629,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>293</v>
@@ -13649,7 +13651,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="48" t="s">
         <v>296</v>
       </c>
@@ -13667,7 +13669,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>42370</v>
       </c>
@@ -13691,7 +13693,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>85</v>
@@ -13713,7 +13715,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>42401</v>
@@ -13738,7 +13740,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>61</v>
@@ -13760,7 +13762,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>228</v>
@@ -13782,7 +13784,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>42430</v>
@@ -13807,7 +13809,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>138</v>
@@ -13829,7 +13831,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>42461</v>
@@ -13854,7 +13856,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" ref="A450:A459" si="21">EDATE(A449,1)</f>
         <v>42491</v>
@@ -13879,7 +13881,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>61</v>
@@ -13901,7 +13903,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>304</v>
@@ -13923,7 +13925,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>42522</v>
@@ -13948,7 +13950,7 @@
         <v>42557</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>61</v>
@@ -13970,7 +13972,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>61</v>
@@ -13992,7 +13994,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>207</v>
@@ -14014,7 +14016,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A453,1)</f>
         <v>42552</v>
@@ -14039,7 +14041,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -14064,7 +14066,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -14089,7 +14091,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>78</v>
@@ -14109,7 +14111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -14127,7 +14129,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42644</v>
@@ -14150,7 +14152,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>57</v>
@@ -14172,7 +14174,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>61</v>
@@ -14194,7 +14196,7 @@
         <v>42593</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13">
@@ -14212,7 +14214,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A462,1)</f>
         <v>42675</v>
@@ -14237,7 +14239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>86</v>
@@ -14259,7 +14261,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A466,1)</f>
         <v>42705</v>
@@ -14284,7 +14286,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
         <v>313</v>
       </c>
@@ -14302,7 +14304,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42736</v>
       </c>
@@ -14326,7 +14328,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A470,1)</f>
         <v>42767</v>
@@ -14349,7 +14351,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>223</v>
@@ -14371,7 +14373,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>42795</v>
@@ -14392,7 +14394,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" ref="A474:A484" si="22">EDATE(A473,1)</f>
         <v>42826</v>
@@ -14415,7 +14417,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>207</v>
@@ -14437,7 +14439,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A474,1)</f>
         <v>42856</v>
@@ -14462,7 +14464,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13">
@@ -14480,7 +14482,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A476,1)</f>
         <v>42887</v>
@@ -14505,7 +14507,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -14530,7 +14532,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>78</v>
@@ -14550,7 +14552,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -14572,7 +14574,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A479,1)</f>
         <v>42948</v>
@@ -14597,7 +14599,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -14618,7 +14620,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -14643,7 +14645,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -14665,7 +14667,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>61</v>
@@ -14687,7 +14689,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13">
@@ -14705,7 +14707,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A484,1)</f>
         <v>43040</v>
@@ -14728,7 +14730,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13">
@@ -14746,7 +14748,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>43070</v>
@@ -14771,7 +14773,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>61</v>
@@ -14793,7 +14795,7 @@
         <v>42928</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14811,7 +14813,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
         <v>323</v>
       </c>
@@ -14829,7 +14831,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43101</v>
       </c>
@@ -14849,7 +14851,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>43132</v>
@@ -14870,7 +14872,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A511" si="23">EDATE(A495,1)</f>
         <v>43160</v>
@@ -14895,7 +14897,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>78</v>
@@ -14915,7 +14917,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -14933,7 +14935,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A496,1)</f>
         <v>43191</v>
@@ -14954,7 +14956,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -14975,7 +14977,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -14996,7 +14998,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -15017,7 +15019,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -15042,7 +15044,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>67</v>
@@ -15062,7 +15064,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13">
@@ -15080,7 +15082,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f>EDATE(A503,1)</f>
         <v>43344</v>
@@ -15101,7 +15103,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -15124,7 +15126,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15146,7 +15148,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13">
@@ -15164,7 +15166,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f>EDATE(A507,1)</f>
         <v>43405</v>
@@ -15185,7 +15187,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="23"/>
         <v>43435</v>
@@ -15212,7 +15214,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>330</v>
       </c>
@@ -15230,7 +15232,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43466</v>
       </c>
@@ -15254,7 +15256,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>78</v>
@@ -15274,7 +15276,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15292,7 +15294,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A513,1)</f>
         <v>43497</v>
@@ -15317,7 +15319,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15335,7 +15337,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>43525</v>
@@ -15356,7 +15358,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <f t="shared" ref="A519:A526" si="24">EDATE(A518,1)</f>
         <v>43556</v>
@@ -15381,7 +15383,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15399,7 +15401,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A519,1)</f>
         <v>43586</v>
@@ -15420,7 +15422,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -15441,7 +15443,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -15462,7 +15464,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -15483,7 +15485,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -15504,7 +15506,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -15527,7 +15529,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>61</v>
@@ -15549,7 +15551,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13">
@@ -15567,7 +15569,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A526,1)</f>
         <v>43770</v>
@@ -15592,7 +15594,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -15610,7 +15612,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>43800</v>
@@ -15635,7 +15637,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="48" t="s">
         <v>338</v>
       </c>
@@ -15653,7 +15655,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43831</v>
       </c>
@@ -15673,7 +15675,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f>EDATE(A533,1)</f>
         <v>43862</v>
@@ -15698,7 +15700,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>78</v>
@@ -15718,7 +15720,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>59</v>
@@ -15740,7 +15742,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13">
@@ -15758,7 +15760,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f>EDATE(A534,1)</f>
         <v>43891</v>
@@ -15779,7 +15781,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" ref="A539:A549" si="25">EDATE(A538,1)</f>
         <v>43922</v>
@@ -15800,7 +15802,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -15821,7 +15823,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -15842,7 +15844,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -15863,7 +15865,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -15884,7 +15886,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -15907,7 +15909,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -15925,7 +15927,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f>EDATE(A544,1)</f>
         <v>44105</v>
@@ -15948,7 +15950,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13">
@@ -15966,7 +15968,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>44136</v>
@@ -15987,7 +15989,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="25"/>
         <v>44166</v>
@@ -16010,7 +16012,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13">
@@ -16028,7 +16030,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="48" t="s">
         <v>346</v>
       </c>
@@ -16046,7 +16048,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44197</v>
       </c>
@@ -16066,7 +16068,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A552,1)</f>
         <v>44228</v>
@@ -16089,7 +16091,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13">
@@ -16107,7 +16109,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44256</v>
@@ -16128,7 +16130,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f t="shared" ref="A556:A562" si="26">EDATE(A555,1)</f>
         <v>44287</v>
@@ -16149,7 +16151,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -16170,7 +16172,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -16191,7 +16193,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -16212,7 +16214,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -16233,7 +16235,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -16254,7 +16256,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -16277,7 +16279,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>57</v>
@@ -16299,7 +16301,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13">
@@ -16317,7 +16319,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f>EDATE(A562,1)</f>
         <v>44501</v>
@@ -16342,7 +16344,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13">
@@ -16360,7 +16362,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f>EDATE(A565,1)</f>
         <v>44531</v>
@@ -16383,7 +16385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13">
@@ -16401,7 +16403,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="48" t="s">
         <v>352</v>
       </c>
@@ -16419,7 +16421,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44562</v>
       </c>
@@ -16441,7 +16443,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16459,7 +16461,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>44593</v>
@@ -16480,7 +16482,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f t="shared" ref="A573:A579" si="27">EDATE(A572,1)</f>
         <v>44621</v>
@@ -16501,7 +16503,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <f t="shared" si="27"/>
         <v>44652</v>
@@ -16526,7 +16528,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16544,7 +16546,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A574,1)</f>
         <v>44682</v>
@@ -16565,7 +16567,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <f t="shared" si="27"/>
         <v>44713</v>
@@ -16586,7 +16588,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <f t="shared" si="27"/>
         <v>44743</v>
@@ -16607,7 +16609,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f t="shared" si="27"/>
         <v>44774</v>
@@ -16632,7 +16634,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13">
@@ -16652,7 +16654,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>44805</v>
       </c>
@@ -16678,7 +16680,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>361</v>
@@ -16700,7 +16702,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44835</v>
       </c>
@@ -16724,7 +16726,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>363</v>
@@ -16746,7 +16748,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44866</v>
       </c>
@@ -16772,7 +16774,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44896</v>
       </c>
@@ -16798,7 +16800,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="48" t="s">
         <v>356</v>
       </c>
@@ -16816,7 +16818,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44927</v>
       </c>
@@ -16836,7 +16838,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44958</v>
       </c>
@@ -16860,47 +16862,53 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44986</v>
       </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45017</v>
       </c>
       <c r="B591" s="20"/>
-      <c r="C591" s="13"/>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45047</v>
       </c>
-      <c r="B592" s="20"/>
+      <c r="B592" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
@@ -16912,9 +16920,11 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K592" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45078</v>
       </c>
@@ -16932,7 +16942,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45108</v>
       </c>
@@ -16950,7 +16960,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45139</v>
       </c>
@@ -16968,7 +16978,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45170</v>
       </c>
@@ -16986,7 +16996,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45200</v>
       </c>
@@ -17004,7 +17014,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45231</v>
       </c>
@@ -17022,7 +17032,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45261</v>
       </c>
@@ -17040,7 +17050,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17056,7 +17066,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17072,7 +17082,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17088,7 +17098,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17104,7 +17114,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17120,7 +17130,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17136,7 +17146,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17152,7 +17162,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17168,7 +17178,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17184,7 +17194,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17200,7 +17210,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17216,7 +17226,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41"/>
       <c r="B611" s="15"/>
       <c r="C611" s="42"/>
@@ -17247,10 +17257,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17273,29 +17283,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -17308,7 +17318,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17337,7 +17347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17363,17 +17373,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>367</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17394,7 +17407,11 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>529.7600000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17421,7 +17438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17447,7 +17464,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17473,7 +17490,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17499,7 +17516,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17525,7 +17542,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17551,7 +17568,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17577,7 +17594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17603,7 +17620,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17623,7 +17640,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17643,7 +17660,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17663,7 +17680,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17684,7 +17701,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17705,7 +17722,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17726,7 +17743,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17747,7 +17764,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17768,7 +17785,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17789,7 +17806,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17810,7 +17827,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17831,7 +17848,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17852,7 +17869,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17873,7 +17890,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17894,7 +17911,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17915,7 +17932,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17936,7 +17953,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17957,7 +17974,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17978,7 +17995,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17999,7 +18016,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18020,7 +18037,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18041,7 +18058,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18062,7 +18079,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18083,7 +18100,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18092,7 +18109,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18101,7 +18118,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18110,7 +18127,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18119,7 +18136,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18128,7 +18145,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18137,7 +18154,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18146,7 +18163,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18155,7 +18172,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18164,7 +18181,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18173,7 +18190,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18182,7 +18199,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18191,7 +18208,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18200,7 +18217,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18209,7 +18226,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18218,7 +18235,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18227,7 +18244,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18236,7 +18253,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18245,7 +18262,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18254,7 +18271,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18263,7 +18280,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18272,7 +18289,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18281,7 +18298,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18290,7 +18307,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18299,7 +18316,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18308,7 +18325,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18317,7 +18334,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18326,7 +18343,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18335,7 +18352,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18344,7 +18361,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DIMAPILIS, JONNA.xlsx
+++ b/REGULAR/DIMAPILIS, JONNA.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="368">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2012,6 +2013,904 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CONVERTION!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DATE STARTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>CONVERTION!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CONVERTION!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEAVE EARN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>CONVERTION!$K$3</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CONVERTION!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEAVE EARNED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>CONVERTION!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="287491272"/>
+        <c:axId val="287490880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="287491272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287490880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="287490880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287491272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2032,7 +2931,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2974,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +3038,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +3098,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +3164,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +3227,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +3325,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +3384,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +3449,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +3492,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +3567,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +3753,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +3819,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3877,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3943,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3999,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +4074,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +4117,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +4183,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +4239,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,6 +4319,33 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670421" cy="6302523"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3438,7 +4364,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +4427,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +4876,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A578" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B593" sqref="B593"/>
+      <selection pane="bottomLeft" activeCell="I595" sqref="I595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +5039,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>243.13500000000008</v>
+        <v>246.88500000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4123,7 +5049,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>286.625</v>
+        <v>289.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16909,13 +17835,15 @@
       <c r="B592" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C592" s="13"/>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
@@ -16929,13 +17857,15 @@
         <v>45078</v>
       </c>
       <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
@@ -16947,13 +17877,15 @@
         <v>45108</v>
       </c>
       <c r="B594" s="20"/>
-      <c r="C594" s="13"/>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="39"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
@@ -16964,7 +17896,9 @@
       <c r="A595" s="40">
         <v>45139</v>
       </c>
-      <c r="B595" s="20"/>
+      <c r="B595" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
       <c r="E595" s="9"/>
@@ -16973,10 +17907,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H595" s="39"/>
+      <c r="H595" s="39">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="50">
+        <v>45140</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
@@ -17288,7 +18226,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17410,7 +18348,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>529.7600000000001</v>
+        <v>536.2600000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
